--- a/Herbb.xlsx
+++ b/Herbb.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2251,9 +2251,43 @@
         <v>2024-09-30</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>sdfaf</v>
+      </c>
+      <c r="B114" t="str">
+        <v>adfad</v>
+      </c>
+      <c r="C114" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D114" t="str">
+        <v/>
+      </c>
+      <c r="E114" t="str">
+        <v>2024-10-01</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>sdfaf</v>
+      </c>
+      <c r="B115" t="str">
+        <v>adfad</v>
+      </c>
+      <c r="C115" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D115" t="str">
+        <v/>
+      </c>
+      <c r="E115" t="str">
+        <v>2024-10-01</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E113"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E115"/>
   </ignoredErrors>
 </worksheet>
 </file>